--- a/TextManager/Assets/Textos.xlsx
+++ b/TextManager/Assets/Textos.xlsx
@@ -13,13 +13,164 @@
   </bookViews>
   <sheets>
     <sheet name="Dialogos" sheetId="1" r:id="rId1"/>
+    <sheet name="Tienda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Silla</t>
+  </si>
+  <si>
+    <t>Refresco</t>
+  </si>
+  <si>
+    <t>Naranjada Mineral</t>
+  </si>
+  <si>
+    <t>Ametralladora Ligera</t>
+  </si>
+  <si>
+    <t>Computadora</t>
+  </si>
+  <si>
+    <t>Machete</t>
+  </si>
+  <si>
+    <t>Huevos</t>
+  </si>
+  <si>
+    <t>Piñatas</t>
+  </si>
+  <si>
+    <t>Lucha Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Mineral Orangery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light machine gun </t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machete </t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piñatas </t>
+  </si>
+  <si>
+    <t>Wrestling</t>
+  </si>
+  <si>
+    <t>tavolo</t>
+  </si>
+  <si>
+    <t>sedia</t>
+  </si>
+  <si>
+    <t>rinfresco</t>
+  </si>
+  <si>
+    <t>aranciata Mineral</t>
+  </si>
+  <si>
+    <t>mitragliatrice leggera</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>macete</t>
+  </si>
+  <si>
+    <t>uova</t>
+  </si>
+  <si>
+    <t>piñata</t>
+  </si>
+  <si>
+    <t>lotta</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t>リフレッシュ</t>
+  </si>
+  <si>
+    <t>オレンジエードミネラル</t>
+  </si>
+  <si>
+    <t>軽機関銃</t>
+  </si>
+  <si>
+    <t>コンピュータ</t>
+  </si>
+  <si>
+    <t>なた</t>
+  </si>
+  <si>
+    <t>卵</t>
+  </si>
+  <si>
+    <t>ピニャータ</t>
+  </si>
+  <si>
+    <t>レスリング</t>
+  </si>
+  <si>
+    <t>Dialogos_mesa</t>
+  </si>
+  <si>
+    <t>Dialogos_silla</t>
+  </si>
+  <si>
+    <t>Dialogos_refresco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soda </t>
+  </si>
+  <si>
+    <t>Dialogos_naranjada</t>
+  </si>
+  <si>
+    <t>Dialogos_ametralladora</t>
+  </si>
+  <si>
+    <t>Dialogos_computadora</t>
+  </si>
+  <si>
+    <t>Dialogos_machete</t>
+  </si>
+  <si>
+    <t>Dialogos_huevos</t>
+  </si>
+  <si>
+    <t>Dialogos_piñatas</t>
+  </si>
+  <si>
+    <t>Dialogos_lucha</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -36,124 +187,94 @@
     <t>Japones</t>
   </si>
   <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>Silla</t>
-  </si>
-  <si>
-    <t>Refresco</t>
-  </si>
-  <si>
-    <t>Naranjada Mineral</t>
-  </si>
-  <si>
-    <t>Ametralladora Ligera</t>
-  </si>
-  <si>
-    <t>Computadora</t>
-  </si>
-  <si>
-    <t>Machete</t>
-  </si>
-  <si>
-    <t>Huevos</t>
-  </si>
-  <si>
-    <t>Piñatas</t>
-  </si>
-  <si>
-    <t>Lucha Libre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table </t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soda </t>
-  </si>
-  <si>
-    <t>Mineral Orangery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Light machine gun </t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Machete </t>
-  </si>
-  <si>
-    <t>Eggs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Piñatas </t>
-  </si>
-  <si>
-    <t>Wrestling</t>
-  </si>
-  <si>
-    <t>tavolo</t>
-  </si>
-  <si>
-    <t>sedia</t>
-  </si>
-  <si>
-    <t>rinfresco</t>
-  </si>
-  <si>
-    <t>aranciata Mineral</t>
-  </si>
-  <si>
-    <t>mitragliatrice leggera</t>
-  </si>
-  <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>macete</t>
-  </si>
-  <si>
-    <t>uova</t>
-  </si>
-  <si>
-    <t>piñata</t>
-  </si>
-  <si>
-    <t>lotta</t>
-  </si>
-  <si>
-    <t>テーブル</t>
-  </si>
-  <si>
-    <t>椅子</t>
-  </si>
-  <si>
-    <t>リフレッシュ</t>
-  </si>
-  <si>
-    <t>オレンジエードミネラル</t>
-  </si>
-  <si>
-    <t>軽機関銃</t>
-  </si>
-  <si>
-    <t>コンピュータ</t>
-  </si>
-  <si>
-    <t>なた</t>
-  </si>
-  <si>
-    <t>卵</t>
-  </si>
-  <si>
-    <t>ピニャータ</t>
-  </si>
-  <si>
-    <t>レスリング</t>
+    <t>Tienda_hola</t>
+  </si>
+  <si>
+    <t>Hola, como estas?</t>
+  </si>
+  <si>
+    <t>Hello how are you?</t>
+  </si>
+  <si>
+    <t>Ciao, come stai?</t>
+  </si>
+  <si>
+    <t>こんにちは、お元気ですか？</t>
+  </si>
+  <si>
+    <t>Tienda_pepe</t>
+  </si>
+  <si>
+    <t>Pepe pecas, pica papas</t>
+  </si>
+  <si>
+    <t>Pepe frets, potatoes</t>
+  </si>
+  <si>
+    <t>lentiggini pepe, patate prurito</t>
+  </si>
+  <si>
+    <t>ペペのそばかす、かゆみジャガイモ</t>
+  </si>
+  <si>
+    <t>Tienda_Anita</t>
+  </si>
+  <si>
+    <t>Anita lava la tina</t>
+  </si>
+  <si>
+    <t>Anita washes the tub</t>
+  </si>
+  <si>
+    <t>Anita vasca di lavaggio</t>
+  </si>
+  <si>
+    <t>アニタ・洗濯槽</t>
+  </si>
+  <si>
+    <t>Tienda_cielo</t>
+  </si>
+  <si>
+    <t>El cielo resplandese</t>
+  </si>
+  <si>
+    <t>The sky shines</t>
+  </si>
+  <si>
+    <t>Il cielo resplandese</t>
+  </si>
+  <si>
+    <t>スカイresplandese</t>
+  </si>
+  <si>
+    <t>Tienda_rededor</t>
+  </si>
+  <si>
+    <t>A mi al rededor, rededor</t>
+  </si>
+  <si>
+    <t>Around me around</t>
+  </si>
+  <si>
+    <t>Per me in giro, intorno</t>
+  </si>
+  <si>
+    <t>私の周りに、周り</t>
+  </si>
+  <si>
+    <t>Tienda_zodiaco</t>
+  </si>
+  <si>
+    <t>Los caballeros del zodiaco</t>
+  </si>
+  <si>
+    <t>Knights of the Zodiac</t>
+  </si>
+  <si>
+    <t>Cavalieri dello Zodiaco</t>
+  </si>
+  <si>
+    <t>聖戦士星矢</t>
   </si>
 </sst>
 </file>
@@ -495,203 +616,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>